--- a/src/main/resources/template/excel/export/diffSearchCategorySummarizing.xlsx
+++ b/src/main/resources/template/excel/export/diffSearchCategorySummarizing.xlsx
@@ -34,7 +34,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="M3")</t>
+          <t>jx:area(lastCell="N3")</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="M3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="N3")</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>${obj.branchCode}</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -163,6 +163,14 @@
   </si>
   <si>
     <t>${obj.lossRate}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际处理金额（不含税成本价）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.untaxedCostAmountHandle}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EE75"/>
+  <dimension ref="A1:EF75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -632,13 +640,14 @@
     <col min="1" max="1" width="17.5" style="3" customWidth="1"/>
     <col min="2" max="9" width="18.25" style="3" customWidth="1"/>
     <col min="10" max="10" width="21.875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.125" style="3" customWidth="1"/>
-    <col min="12" max="12" width="19.75" style="3" customWidth="1"/>
-    <col min="13" max="13" width="15.75" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="3"/>
+    <col min="11" max="11" width="26.125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.75" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15.75" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:136" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -654,7 +663,7 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
-      <c r="N1" s="3"/>
+      <c r="N1" s="7"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
@@ -776,8 +785,9 @@
       <c r="EC1" s="3"/>
       <c r="ED1" s="3"/>
       <c r="EE1" s="3"/>
+      <c r="EF1" s="3"/>
     </row>
-    <row r="2" spans="1:135" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:136" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -809,15 +819,17 @@
         <v>16</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="N2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
@@ -939,8 +951,9 @@
       <c r="EC2" s="3"/>
       <c r="ED2" s="3"/>
       <c r="EE2" s="3"/>
+      <c r="EF2" s="3"/>
     </row>
-    <row r="3" spans="1:135" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:136" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
@@ -972,28 +985,31 @@
         <v>14</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:135" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:135" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:135" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:135" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:136" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:136" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:136" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:136" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:136" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:136" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:136" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:136" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:136" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:136" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1055,7 +1071,7 @@
     <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
